--- a/public/uploads/KPI aire Junio.xlsx
+++ b/public/uploads/KPI aire Junio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Desktop\plan matriz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63874AFB-E0A2-4F3A-BE7B-4E53DF5ED4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEB76AD-8751-401A-8708-E1C43B25E043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,11 +832,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1230,7 +1230,7 @@
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>44714</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -2037,27 +2037,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="A101:A106"/>
-    <mergeCell ref="A68:A74"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="A113:A116"/>
     <mergeCell ref="A75:A82"/>
     <mergeCell ref="A83:A86"/>
     <mergeCell ref="A87:A96"/>
     <mergeCell ref="A97:A100"/>
     <mergeCell ref="A107:A112"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="A101:A106"/>
+    <mergeCell ref="A68:A74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
